--- a/テスト仕様書/テスト仕様書_STEP2.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="管理者メニュー画面(kanri.php)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -287,6 +287,395 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計書通りに表示されているかを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安部周太</t>
+    <rPh sb="0" eb="2">
+      <t>アベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBと接続確認</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名、現在の在庫数が表示されるか確認</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補充数の入力と
+制限</t>
+    <rPh sb="0" eb="2">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボードでの入力、&lt;input type = number&gt;での入力を両方確認
+&lt;.input type = number &gt;の場合に入力は、minとmaxが設定されている minは0。Maxは100となっている。キーボードでの入力&lt;input type =numberでの入力両方を確認&gt;</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並び替えのセレクト</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫が多い順、少ない順、標準のセレクトボタンが用意されているか
+を確認</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並び替えるボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫が多い順、少ない順、標準に並び替えられるか確認</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補充ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ホジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補充数を入力後補充ボタンを押すと在庫数が増えるか確認
+この場合、一項目のみの補充と、複数補充（２項目以上の補充）と２パターンで行った。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>イチコウモク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100個以上入力した
+場合の警告</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボードで１００以上の数字を入力した場合、警告表示と、補充されないようになるか確認</t>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ホームボタン</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ホームへ画面遷移するかの確認</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品管理画面ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品管理画面に遷移するかの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -419,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +859,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,26 +1421,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1088,7 +1480,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1105,7 +1497,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1116,7 +1508,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1132,7 +1524,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1148,7 +1540,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1164,7 +1556,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1180,7 +1572,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1196,7 +1588,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -1212,7 +1604,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -1228,7 +1620,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -1244,7 +1636,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -1260,7 +1652,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -1276,7 +1668,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -1292,7 +1684,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -1308,7 +1700,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -1324,7 +1716,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -1340,7 +1732,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -1356,7 +1748,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -1372,7 +1764,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -1388,7 +1780,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1399,7 +1791,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -1415,7 +1807,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -1431,7 +1823,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -1447,7 +1839,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -1458,7 +1850,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -1469,7 +1861,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -1480,7 +1872,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -1491,7 +1883,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -1502,7 +1894,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -1513,7 +1905,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -1524,7 +1916,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -1535,7 +1927,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -1546,7 +1938,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -1557,7 +1949,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -1568,7 +1960,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -1579,7 +1971,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -1590,7 +1982,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -1601,7 +1993,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -1612,7 +2004,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -1638,22 +2030,22 @@
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +2068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1693,7 +2085,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1710,7 +2102,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1721,7 +2113,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1737,7 +2129,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1753,7 +2145,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1769,7 +2161,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1785,7 +2177,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1801,7 +2193,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -1817,7 +2209,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -1833,7 +2225,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -1849,7 +2241,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -1865,7 +2257,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -1881,7 +2273,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -1897,7 +2289,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -1913,7 +2305,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -1929,7 +2321,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -1945,7 +2337,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -1961,7 +2353,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -1977,7 +2369,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -1993,7 +2385,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2004,7 +2396,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -2020,7 +2412,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -2036,7 +2428,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -2052,7 +2444,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -2063,7 +2455,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -2074,7 +2466,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -2085,7 +2477,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -2096,7 +2488,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -2107,7 +2499,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -2118,7 +2510,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -2129,7 +2521,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -2140,7 +2532,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -2151,7 +2543,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -2162,7 +2554,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -2173,7 +2565,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -2184,7 +2576,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -2195,7 +2587,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -2206,7 +2598,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -2217,7 +2609,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -2239,26 +2631,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2281,60 +2673,80 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2342,15 +2754,23 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2358,15 +2778,23 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2374,15 +2802,23 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2390,15 +2826,23 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2406,15 +2850,23 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2422,7 +2874,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -2438,7 +2890,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -2454,7 +2906,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -2470,7 +2922,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -2486,7 +2938,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -2502,7 +2954,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -2518,7 +2970,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -2534,7 +2986,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -2550,7 +3002,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -2566,7 +3018,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -2582,7 +3034,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2598,7 +3050,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2609,7 +3061,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -2625,7 +3077,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -2641,7 +3093,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -2657,7 +3109,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -2668,7 +3120,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -2679,7 +3131,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -2690,7 +3142,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -2701,7 +3153,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -2712,7 +3164,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -2723,7 +3175,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -2734,7 +3186,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -2745,7 +3197,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -2756,7 +3208,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -2767,7 +3219,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -2778,7 +3230,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -2789,7 +3241,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -2800,7 +3252,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -2811,7 +3263,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -2822,7 +3274,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -2848,25 +3300,25 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2889,7 +3341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -2906,7 +3358,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -2923,7 +3375,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -2940,7 +3392,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -2962,7 +3414,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -2978,7 +3430,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2994,7 +3446,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -3010,7 +3462,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -3026,7 +3478,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -3042,7 +3494,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -3058,7 +3510,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -3074,7 +3526,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -3090,7 +3542,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -3106,7 +3558,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -3122,7 +3574,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -3138,7 +3590,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -3154,7 +3606,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -3170,7 +3622,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -3186,7 +3638,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -3202,7 +3654,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -3218,7 +3670,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -3229,7 +3681,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -3245,7 +3697,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -3261,7 +3713,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -3277,7 +3729,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -3288,7 +3740,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -3299,7 +3751,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -3310,7 +3762,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -3321,7 +3773,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -3332,7 +3784,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -3343,7 +3795,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -3354,7 +3806,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -3365,7 +3817,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -3376,7 +3828,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -3387,7 +3839,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -3398,7 +3850,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -3409,7 +3861,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -3420,7 +3872,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -3431,7 +3883,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -3442,7 +3894,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -3469,25 +3921,25 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3510,7 +3962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -3527,7 +3979,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -3544,7 +3996,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -3555,7 +4007,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -3571,7 +4023,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -3587,7 +4039,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -3603,7 +4055,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -3619,7 +4071,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -3635,7 +4087,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -3651,7 +4103,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -3667,7 +4119,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -3683,7 +4135,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -3699,7 +4151,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -3715,7 +4167,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -3731,7 +4183,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -3747,7 +4199,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -3763,7 +4215,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -3779,7 +4231,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -3795,7 +4247,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -3811,7 +4263,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -3827,7 +4279,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -3838,7 +4290,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -3854,7 +4306,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -3870,7 +4322,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -3886,7 +4338,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -3897,7 +4349,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -3908,7 +4360,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -3919,7 +4371,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -3930,7 +4382,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -3941,7 +4393,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -3952,7 +4404,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -3963,7 +4415,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -3974,7 +4426,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -3985,7 +4437,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -3996,7 +4448,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -4007,7 +4459,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -4018,7 +4470,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -4029,7 +4481,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -4040,7 +4492,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -4051,7 +4503,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -4078,25 +4530,25 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4119,7 +4571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -4136,7 +4588,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -4153,7 +4605,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -4164,7 +4616,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -4180,7 +4632,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -4196,7 +4648,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -4212,7 +4664,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -4228,7 +4680,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -4244,7 +4696,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -4260,7 +4712,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -4276,7 +4728,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -4292,7 +4744,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -4308,7 +4760,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -4324,7 +4776,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -4340,7 +4792,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -4356,7 +4808,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -4372,7 +4824,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -4388,7 +4840,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -4404,7 +4856,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -4420,7 +4872,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -4436,7 +4888,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -4447,7 +4899,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -4463,7 +4915,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -4479,7 +4931,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -4495,7 +4947,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -4506,7 +4958,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -4517,7 +4969,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -4528,7 +4980,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -4539,7 +4991,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -4550,7 +5002,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -4561,7 +5013,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -4572,7 +5024,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -4583,7 +5035,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -4594,7 +5046,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -4605,7 +5057,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -4616,7 +5068,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -4627,7 +5079,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -4638,7 +5090,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -4649,7 +5101,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -4660,7 +5112,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>40</v>
       </c>

--- a/テスト仕様書/テスト仕様書_STEP2.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="管理者メニュー画面(kanri.php)" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'メニュー画面(main.php)'!$C$6:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'メニュー画面(side.php)'!$C$6:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'管理者メニュー画面(kanri.php)'!$C$5:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'在庫管理画面(inventory.php)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'在庫管理画面(inventory.php)'!$C$6:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'商品管理画面(menu_manage.php)'!$C$5:$C$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -95,19 +96,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID入力欄、パスワード入力欄、送信ボタン</t>
-    <rPh sb="2" eb="5">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -317,20 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>安部周太</t>
-    <rPh sb="0" eb="2">
-      <t>アベ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DBと接続確認</t>
     <rPh sb="3" eb="5">
       <t>セツゾク</t>
@@ -377,48 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キーボードでの入力、&lt;input type = number&gt;での入力を両方確認
-&lt;.input type = number &gt;の場合に入力は、minとmaxが設定されている minは0。Maxは100となっている。キーボードでの入力&lt;input type =numberでの入力両方を確認&gt;</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>並び替えのセレクト</t>
     <rPh sb="0" eb="1">
       <t>ナラ</t>
@@ -458,10 +390,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>並び替えるボタン</t>
     <rPh sb="0" eb="1">
       <t>ナラ</t>
@@ -503,10 +431,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>補充ボタン</t>
     <rPh sb="0" eb="2">
       <t>ホジュウ</t>
@@ -514,117 +438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>補充数を入力後補充ボタンを押すと在庫数が増えるか確認
-この場合、一項目のみの補充と、複数補充（２項目以上の補充）と２パターンで行った。</t>
-    <rPh sb="0" eb="2">
-      <t>ホジュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホジュウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>イチコウモク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ホジュウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ホジュウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ホジュウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100個以上入力した
-場合の警告</t>
-    <rPh sb="3" eb="4">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケイコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーボードで１００以上の数字を入力した場合、警告表示と、補充されないようになるか確認</t>
-    <rPh sb="9" eb="11">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ホジュウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者ホームボタン</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -632,22 +445,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者ホームへ画面遷移するかの確認</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品管理画面ボタン</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -661,21 +458,1186 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品管理画面に遷移するかの確認</t>
+    <t>ユーザー情報管理、在庫管理、商品管理、ホーム画面へボタン</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客さん画面からアクセスした時、このページは表示されず管理者確認画面（manager_login.php）に遷移する</t>
+    <rPh sb="1" eb="2">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度category.phpに遷移して管理者セッションを外した後、kanri.phpにアクセスする</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非管理者アクセス</t>
+    <rPh sb="0" eb="4">
+      <t>ヒカンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログインアクセス</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン状態でアクセスをした場合、index.phpに戻される</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度error.phpでログインセッションを外した後、kanri.phpにアクセスする</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫管理へ、管理者画面へボタンの表示、商品登録欄、商品一覧表示テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同名商品登録</t>
+    <rPh sb="0" eb="2">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既に登録済の商品の登録をした際、エラーではじかれる</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ナンコツ」他項目は自由で登録を試して登録不可であるかチェックする</t>
+    <rPh sb="6" eb="7">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名文字数</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録項目空</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名、価格、カテゴリーの入力欄がどれか1つでも空の場合はじかれて、登録できない</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名は20文字までなので、21字以上入力してみる</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名を21文字以上で登録できるか確認</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格設定</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品価格をマイナスで入力するとはじかれるか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名「テスト」価格「-10」カテゴリ自由で登録を試す</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス確認</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧に出てくるチェックボックスにチェックを入れて、該当の商品が編集可能であるか確認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①全リストを出した後、「ナンコツ」に✔し、編集枠での入力、編集が可能かを確認
+②カテゴリごとで「ドリンク」を選択をした後「オレンジジュース」に✔し、編集枠での入力、編集が可能かを確認</t>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集確認</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集の際、既に存在しているメニュー名への変更ができないようになっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ナンコツ」に✔を入れて、編集枠でメニュー名を「ピーマン肉詰め」に変更してみる。</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニクヅ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集確認</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集の際、商品名が21文字以上で登録できるか確認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ナンコツ」に✔を入れて、編集枠でメニュー名を「ナンコツ12345678901234567890」に変更可能か。21字以上なのではじかれるとOK</t>
+    <rPh sb="52" eb="54">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集の際、商品価格がマイナスで入力できないか確認</t>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ナンコツ」に✔を入れて、編集枠で価格を「-10」に変更可能か。はじかれればOK</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集の際、商品名、価格、カテゴリーの入力欄がどれか1つでも空の場合はじかれて、編集できない</t>
+    <rPh sb="41" eb="43">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移確認</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫管理へボタンを押下し、inventory.phpに遷移する</t>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者画面へボタンを押下し、kanri.phpに遷移する</t>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫管理ボタンを押下し、inventory.phpに遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品管理ボタンを押下し、menu_manage.phpに遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面へボタンを押下し、home.phpに遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並び替えボタン（並び替えリスト）、管理者ホームボタン、商品管理画面ボタン、一覧テーブル、補充ボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補充数にマイナス、101以上の入力ができないようになっているか確認。
+キーボード、スピンボタン▲▼で確認</t>
+    <rPh sb="0" eb="2">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナンコツの数量に-10、烏龍茶の補充数に105入れてはじかれるか確認</t>
+    <rPh sb="5" eb="7">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ウーロンチャ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ホジュウスウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補充数を入力後補充ボタンを押すと在庫数が増えるか確認
+この場合、一項目のみの補充と、複数補充（２項目以上の補充）と２パターンで行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>イチコウモク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナンコツの数量に10補充追加する。補充後ナンコツは15になる。続けて、ナンコツに補充数5,烏龍茶に15補充する。結果ナンコツ20、烏龍茶20になる。</t>
+    <rPh sb="10" eb="12">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ホジュウゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ウーロンチャ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ホジュウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ウーロンチャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ホーム（kanri.php）へ画面遷移するかの確認</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品管理画面(menu_manage.php)に遷移するかの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="24" eb="26">
       <t>センイ</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="30" eb="32">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫量以上注文</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫量以上の注文となった場合、注文が通らずにキャンセルされるか</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザでタブを2枚ひらき、きたあかりバターのモーダルをそれぞれ表示させる（この時点で数量2が残っている）。Aのブラウザで残りの2個を注文する（この注文はとおる）、Bのブラウザでも2個注文するが、この注文は既に在庫0の為キャンセルされる</t>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文キャンセル</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未確定注文からキャンセルした場合、その注文の在庫数が戻る</t>
+    <rPh sb="0" eb="3">
+      <t>ミカクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未確定注文一覧の「きたあかりバター」の3個の注文をキャンセルし、「きたあかりバター」のモーダルを開いた時数量「3」が選択できる</t>
+    <rPh sb="48" eb="49">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「オレンジジュース」在庫5個の状態で確認</t>
+    <rPh sb="10" eb="12">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オレンジジュースを数量「3」で注文。
+再度オレンジジュースを選択した時、数量ボタンは1，2のみ
+</t>
+    <rPh sb="9" eb="11">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザでタブを2枚ひらき、オレンジジュースのモーダルをそれぞれ表示させる（この時点で数量2が残っている）。Aのブラウザで残りの2個を注文する（この注文はとおる）、Bのブラウザでも2個注文するが、この注文は既に在庫0の為キャンセルされる</t>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未確定注文一覧の「オレンジジュース」の3個の注文をキャンセルし、「オレンジジュース」のモーダルを開いた時数量「3」が選択できる</t>
+    <rPh sb="48" eb="49">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「おにぎり」在庫5個の状態で確認</t>
+    <rPh sb="6" eb="8">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">おにぎりを数量「3」で注文。
+再度おにぎりを選択した時、数量ボタンは1，2のみ
+</t>
+    <rPh sb="5" eb="7">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザでタブを2枚ひらき、おにぎりのモーダルをそれぞれ表示させる（この時点で数量2が残っている）。Aのブラウザで残りの2個を注文する（この注文はとおる）、Bのブラウザでも2個注文するが、この注文は既に在庫0の為キャンセルされる</t>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未確定注文一覧の「おにぎり」の3個の注文をキャンセルし、「おにぎり」のモーダルを開いた時数量「3」が選択できる</t>
+    <rPh sb="40" eb="41">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -884,6 +1846,98 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="66675"/>
+          <a:ext cx="3952875" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テスト前の準備：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ナンコツ　烏龍茶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の初期在庫を「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>個」とする。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -950,7 +2004,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>きたあかりバター</a:t>
+            <a:t>きたあかりバター　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -972,7 +2026,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1064,7 +2118,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1421,26 +2475,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1463,58 +2517,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -1524,12 +2590,16 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1540,12 +2610,16 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1556,12 +2630,16 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1572,7 +2650,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1588,7 +2666,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -1604,7 +2682,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -1620,7 +2698,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -1636,7 +2714,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -1652,7 +2730,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -1668,7 +2746,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -1684,7 +2762,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -1700,7 +2778,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -1716,7 +2794,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -1732,7 +2810,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -1748,7 +2826,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -1764,7 +2842,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -1780,7 +2858,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1791,7 +2869,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -1807,7 +2885,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -1823,7 +2901,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -1839,7 +2917,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -1850,7 +2928,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -1861,7 +2939,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -1872,7 +2950,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -1883,7 +2961,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -1894,7 +2972,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -1905,7 +2983,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -1916,7 +2994,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -1927,7 +3005,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -1938,7 +3016,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -1949,7 +3027,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -1960,7 +3038,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -1971,7 +3049,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -1982,7 +3060,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -1993,7 +3071,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -2004,7 +3082,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -2026,26 +3104,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2068,58 +3146,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
@@ -2129,12 +3219,670 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2145,12 +3893,16 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2161,13 +3913,19 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
@@ -2177,12 +3935,16 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2193,9 +3955,648 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>8</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2209,9 +4610,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2225,9 +4626,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2241,9 +4642,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2257,9 +4658,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2273,9 +4674,9 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2289,9 +4690,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2305,13 +4706,13 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
@@ -2321,12 +4722,12 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2337,9 +4738,9 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2353,9 +4754,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2369,68 +4770,68 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
         <v>22</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2444,1276 +4845,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>35</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>37</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
-        <v>40</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>35</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>37</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
-        <v>40</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -3729,7 +4861,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -3740,7 +4872,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -3751,7 +4883,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -3762,7 +4894,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -3773,7 +4905,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -3784,7 +4916,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -3795,7 +4927,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -3806,7 +4938,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -3817,7 +4949,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -3828,7 +4960,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -3839,7 +4971,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -3850,7 +4982,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -3861,7 +4993,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -3872,7 +5004,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -3883,7 +5015,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -3894,7 +5026,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -3917,29 +5049,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3962,58 +5094,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="10"/>
@@ -4023,13 +5167,19 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="10"/>
@@ -4039,13 +5189,19 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
@@ -4055,7 +5211,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -4071,7 +5227,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -4087,7 +5243,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -4103,7 +5259,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -4119,7 +5275,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -4135,7 +5291,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -4151,7 +5307,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -4167,7 +5323,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -4183,7 +5339,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -4199,7 +5355,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -4215,7 +5371,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -4231,7 +5387,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -4247,7 +5403,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -4263,7 +5419,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -4279,7 +5435,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -4290,7 +5446,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -4306,7 +5462,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -4322,7 +5478,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -4338,7 +5494,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -4349,7 +5505,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -4360,7 +5516,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -4371,7 +5527,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -4382,7 +5538,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -4393,7 +5549,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -4404,7 +5560,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -4415,7 +5571,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -4426,7 +5582,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -4437,7 +5593,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -4448,7 +5604,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -4459,7 +5615,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -4470,7 +5626,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -4481,7 +5637,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -4492,7 +5648,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -4503,7 +5659,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -4527,28 +5683,28 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4571,58 +5727,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="10"/>
@@ -4632,13 +5800,19 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="10"/>
@@ -4648,13 +5822,19 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
@@ -4664,7 +5844,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -4680,7 +5860,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -4696,7 +5876,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -4712,7 +5892,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -4728,7 +5908,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -4744,7 +5924,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -4760,7 +5940,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -4776,7 +5956,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -4792,7 +5972,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -4808,7 +5988,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -4824,7 +6004,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -4840,7 +6020,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -4856,7 +6036,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -4872,7 +6052,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>20</v>
       </c>
@@ -4888,7 +6068,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -4899,7 +6079,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -4915,7 +6095,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -4931,7 +6111,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -4947,7 +6127,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -4958,7 +6138,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -4969,7 +6149,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -4980,7 +6160,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -4991,7 +6171,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -5002,7 +6182,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -5013,7 +6193,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -5024,7 +6204,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -5035,7 +6215,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -5046,7 +6226,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -5057,7 +6237,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -5068,7 +6248,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -5079,7 +6259,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -5090,7 +6270,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -5101,7 +6281,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -5112,7 +6292,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>40</v>
       </c>

--- a/テスト仕様書/テスト仕様書_STEP2.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="管理者メニュー画面(kanri.php)" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'メニュー画面(side.php)'!$C$6:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'管理者メニュー画面(kanri.php)'!$C$5:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'在庫管理画面(inventory.php)'!$C$6:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'商品管理画面(menu_manage.php)'!$C$5:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'商品管理画面(menu_manage.php)'!$C$5:$C$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -715,28 +714,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品名は20文字までなので、21字以上入力してみる</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品名を21文字以上で登録できるか確認</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
@@ -1638,6 +1615,154 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名は20文字までなので、21字以上入力してみてはじかれるかを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名は20文字までなので、20字で登録可</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名を20文字で登録できるか確認</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ナンコツ」に✔を入れて、編集枠で価格を「0」に変更可能か。登録できればOK</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集の際、商品価格が0で入力できるか確認</t>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集の際、商品価格がプラス値で入力できるか確認</t>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ナンコツ」に✔を入れて、編集枠で価格を「1」に変更可能か。登録できればOK</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2475,7 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2595,10 +2720,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2615,10 +2740,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2635,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3102,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3249,10 +3374,10 @@
         <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3263,17 +3388,17 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
@@ -3283,19 +3408,17 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
@@ -3305,18 +3428,18 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3327,18 +3450,18 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -3349,18 +3472,18 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -3371,18 +3494,18 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3395,15 +3518,17 @@
     </row>
     <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="10"/>
@@ -3413,17 +3538,17 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
@@ -3433,17 +3558,17 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
+    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="10"/>
@@ -3453,13 +3578,17 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
@@ -3471,11 +3600,15 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="10"/>
@@ -3487,11 +3620,15 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="10"/>
@@ -3503,10 +3640,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3518,42 +3655,47 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="9">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>21</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>18</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="10"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="A25" s="9">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3561,73 +3703,83 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="11">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
+      <c r="A28" s="13">
+        <v>22</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
@@ -3638,7 +3790,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="8"/>
@@ -3649,7 +3801,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
@@ -3660,7 +3812,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
@@ -3671,7 +3823,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
@@ -3682,7 +3834,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
@@ -3693,7 +3845,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
@@ -3704,7 +3856,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
@@ -3715,7 +3867,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
@@ -3726,7 +3878,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="8"/>
@@ -3737,10 +3889,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3748,10 +3900,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="4"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3759,14 +3911,47 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="4"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>38</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>39</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>40</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3835,7 +4020,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3864,10 +4049,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3921,10 +4106,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3943,7 +4128,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -3963,7 +4148,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -4539,13 +4724,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4561,13 +4746,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5139,7 +5324,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5156,7 +5341,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -5172,13 +5357,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -5194,13 +5379,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5772,7 +5957,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5789,7 +5974,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -5805,13 +5990,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -5827,13 +6012,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>

--- a/テスト仕様書/テスト仕様書_STEP2.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="管理者メニュー画面(kanri.php)" sheetId="1" r:id="rId1"/>
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3229,7 +3229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/テスト仕様書/テスト仕様書_STEP2.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="6180" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="管理者メニュー画面(kanri.php)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -360,35 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>在庫が多い順、少ない順、標準のセレクトボタンが用意されているか
-を確認</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>並び替えるボタン</t>
     <rPh sb="0" eb="1">
       <t>ナラ</t>
@@ -990,13 +961,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品編集の際、商品名、価格、カテゴリーの入力欄がどれか1つでも空の場合はじかれて、編集できない</t>
-    <rPh sb="41" eb="43">
-      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1763,6 +1727,60 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菅野</t>
+    <rPh sb="0" eb="2">
+      <t>スガノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集の際、商品名、価格の入力欄がどれか1つでも空の場合はじかれて、編集できない</t>
+    <rPh sb="35" eb="37">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫が多い順、少ない順、登録順のセレクトボタンが用意されているか
+を確認</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2600,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2653,11 +2671,17 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
@@ -2672,43 +2696,61 @@
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44602</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2720,15 +2762,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44602</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2740,15 +2788,21 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44602</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2760,15 +2814,21 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44602</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3229,8 +3289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3282,11 +3342,17 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
@@ -3301,43 +3367,61 @@
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44602</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3349,17 +3433,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44602</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3371,17 +3461,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44602</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3391,17 +3487,23 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44602</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3413,15 +3515,21 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44602</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3433,17 +3541,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44602</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3455,17 +3569,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44602</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3477,17 +3597,23 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44602</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3499,17 +3625,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44602</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3521,17 +3653,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
+      <c r="E16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="10">
+        <v>44602</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3541,17 +3679,23 @@
     <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="10">
+        <v>44602</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3561,17 +3705,23 @@
     <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10">
+        <v>44602</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3583,15 +3733,21 @@
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
+      <c r="E19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="10">
+        <v>44602</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3603,15 +3759,21 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
+      <c r="E20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="10">
+        <v>44602</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3623,15 +3785,21 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
+      <c r="E21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="10">
+        <v>44602</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3964,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4020,11 +4188,17 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
@@ -4037,9 +4211,15 @@
         <v>24</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
@@ -4049,14 +4229,20 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
@@ -4066,12 +4252,18 @@
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44602</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4083,15 +4275,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44602</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4103,17 +4301,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44602</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4125,15 +4329,21 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44602</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -4145,15 +4355,21 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44602</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -4173,9 +4389,15 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44602</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4187,17 +4409,23 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="10">
+        <v>44602</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4209,17 +4437,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+      <c r="E15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44602</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -4601,8 +4835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4659,9 +4893,15 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
@@ -4676,9 +4916,15 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
@@ -4693,9 +4939,15 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
@@ -4710,9 +4962,15 @@
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44602</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -4724,17 +4982,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44602</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4746,17 +5010,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44602</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -5234,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D10"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5292,9 +5562,15 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
@@ -5309,9 +5585,15 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
@@ -5324,11 +5606,17 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
@@ -5341,11 +5629,17 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44602</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -5357,17 +5651,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44602</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -5379,17 +5679,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44602</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -5867,8 +6173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5925,9 +6231,15 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
@@ -5942,9 +6254,15 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
@@ -5957,11 +6275,17 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44602</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
@@ -5974,11 +6298,17 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44602</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -5990,17 +6320,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44602</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -6012,17 +6348,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44602</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>

--- a/テスト仕様書/テスト仕様書_STEP2.xlsx
+++ b/テスト仕様書/テスト仕様書_STEP2.xlsx
@@ -886,47 +886,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品編集の際、商品名が21文字以上で登録できるか確認</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ナンコツ」に✔を入れて、編集枠でメニュー名を「ナンコツ12345678901234567890」に変更可能か。21字以上なのではじかれるとOK</t>
-    <rPh sb="52" eb="54">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品編集の際、商品価格がマイナスで入力できないか確認</t>
     <rPh sb="7" eb="9">
       <t>ショウヒン</t>
@@ -1781,6 +1740,59 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集の際、商品名が21文字以上での登録可否確認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ナンコツ」に✔を入れて、編集枠でメニュー名を「ナンコツ12345678901234567890」に入力、及び変更の可否を確認。21字以上なのではじかれるとOK</t>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1815,12 +1827,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1913,7 +1931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1966,6 +1984,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2674,10 +2698,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="10">
         <v>44602</v>
@@ -2697,10 +2721,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="10">
         <v>44602</v>
@@ -2720,10 +2744,10 @@
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="10">
         <v>44602</v>
@@ -2743,10 +2767,10 @@
         <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="10">
         <v>44602</v>
@@ -2762,17 +2786,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10">
         <v>44602</v>
@@ -2788,17 +2812,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10">
         <v>44602</v>
@@ -2814,17 +2838,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10">
         <v>44602</v>
@@ -3289,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3298,7 +3322,7 @@
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="57.625" customWidth="1"/>
-    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="4" max="4" width="45.125" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
@@ -3318,7 +3342,7 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3345,10 +3369,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="10">
         <v>44602</v>
@@ -3368,10 +3392,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="10">
         <v>44602</v>
@@ -3391,10 +3415,10 @@
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="10">
         <v>44602</v>
@@ -3414,10 +3438,10 @@
         <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="10">
         <v>44602</v>
@@ -3442,10 +3466,10 @@
         <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10">
         <v>44602</v>
@@ -3456,7 +3480,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -3466,14 +3490,14 @@
       <c r="C9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>88</v>
+      <c r="D9" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10">
         <v>44602</v>
@@ -3490,16 +3514,16 @@
         <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10">
         <v>44602</v>
@@ -3520,12 +3544,12 @@
       <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10">
         <v>44602</v>
@@ -3550,10 +3574,10 @@
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" s="10">
         <v>44602</v>
@@ -3578,10 +3602,10 @@
         <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="10">
         <v>44602</v>
@@ -3606,10 +3630,10 @@
         <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G14" s="10">
         <v>44602</v>
@@ -3624,20 +3648,20 @@
       <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>58</v>
+      <c r="C15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="10">
         <v>44602</v>
@@ -3656,16 +3680,16 @@
         <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" s="10">
         <v>44602</v>
@@ -3682,16 +3706,16 @@
         <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="10">
         <v>44602</v>
@@ -3708,16 +3732,16 @@
         <v>56</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G18" s="10">
         <v>44602</v>
@@ -3736,14 +3760,14 @@
         <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="10">
         <v>44602</v>
@@ -3759,17 +3783,17 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" s="10">
         <v>44602</v>
@@ -3785,17 +3809,17 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G21" s="10">
         <v>44602</v>
@@ -3903,7 +3927,7 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
@@ -4188,13 +4212,13 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="10">
         <v>44602</v>
@@ -4212,10 +4236,10 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="10">
         <v>44602</v>
@@ -4229,16 +4253,16 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="10">
         <v>44602</v>
@@ -4252,14 +4276,14 @@
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10">
         <v>44602</v>
@@ -4282,10 +4306,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10">
         <v>44602</v>
@@ -4304,16 +4328,16 @@
         <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10">
         <v>44602</v>
@@ -4332,14 +4356,14 @@
         <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10">
         <v>44602</v>
@@ -4358,14 +4382,14 @@
         <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" s="10">
         <v>44602</v>
@@ -4390,10 +4414,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="10">
         <v>44602</v>
@@ -4418,10 +4442,10 @@
         <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G14" s="10">
         <v>44602</v>
@@ -4446,10 +4470,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="10">
         <v>44602</v>
@@ -4894,10 +4918,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="10">
         <v>44602</v>
@@ -4917,10 +4941,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="10">
         <v>44602</v>
@@ -4940,10 +4964,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="10">
         <v>44602</v>
@@ -4963,10 +4987,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10">
         <v>44602</v>
@@ -4982,19 +5006,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10">
         <v>44602</v>
@@ -5010,19 +5034,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10">
         <v>44602</v>
@@ -5563,10 +5587,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="10">
         <v>44602</v>
@@ -5586,10 +5610,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="10">
         <v>44602</v>
@@ -5606,13 +5630,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="10">
         <v>44602</v>
@@ -5629,13 +5653,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10">
         <v>44602</v>
@@ -5651,19 +5675,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10">
         <v>44602</v>
@@ -5679,19 +5703,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10">
         <v>44602</v>
@@ -6232,10 +6256,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="10">
         <v>44602</v>
@@ -6255,10 +6279,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="10">
         <v>44602</v>
@@ -6275,13 +6299,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="10">
         <v>44602</v>
@@ -6298,13 +6322,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10">
         <v>44602</v>
@@ -6320,19 +6344,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10">
         <v>44602</v>
@@ -6348,19 +6372,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10">
         <v>44602</v>
